--- a/GAA Football Rankings.xlsx
+++ b/GAA Football Rankings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27030"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67E725A-FD3E-454B-A0E7-234CA5ACA1F5}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E08BBB7-AEA5-4038-8B51-956B34E1E62D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,75 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Team</t>
   </si>
   <si>
     <t>Round 0</t>
-  </si>
-  <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Round 3</t>
-  </si>
-  <si>
-    <t>Round 4</t>
-  </si>
-  <si>
-    <t>Round 5</t>
-  </si>
-  <si>
-    <t>Round 6</t>
-  </si>
-  <si>
-    <t>Round 7</t>
-  </si>
-  <si>
-    <t>Round 8</t>
-  </si>
-  <si>
-    <t>Round 9</t>
-  </si>
-  <si>
-    <t>Round 10</t>
-  </si>
-  <si>
-    <t>Round 11</t>
-  </si>
-  <si>
-    <t>Round 12</t>
-  </si>
-  <si>
-    <t>Round 13</t>
-  </si>
-  <si>
-    <t>Round 14</t>
-  </si>
-  <si>
-    <t>Round 15</t>
-  </si>
-  <si>
-    <t>Round 16</t>
-  </si>
-  <si>
-    <t>Round 17</t>
-  </si>
-  <si>
-    <t>Round 18</t>
-  </si>
-  <si>
-    <t>Round 19</t>
-  </si>
-  <si>
-    <t>Round 20</t>
-  </si>
-  <si>
-    <t>Round 21</t>
   </si>
   <si>
     <t>Mayo</t>
@@ -550,200 +487,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B3:B34"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>37</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -751,7 +625,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -759,7 +633,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -767,7 +641,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -775,7 +649,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -783,7 +657,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -791,7 +665,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -799,7 +673,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -807,7 +681,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -815,7 +689,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -823,7 +697,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -831,7 +705,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>50</v>
@@ -839,7 +713,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -847,7 +721,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>50</v>
@@ -855,7 +729,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -863,7 +737,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -871,7 +745,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>50</v>
@@ -879,7 +753,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -887,7 +761,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>50</v>

--- a/GAA Football Rankings.xlsx
+++ b/GAA Football Rankings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E08BBB7-AEA5-4038-8B51-956B34E1E62D}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D52722-F0FA-4419-826D-833FD26543A9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Round 0</t>
+    <t>Round_0</t>
   </si>
   <si>
     <t>Mayo</t>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
